--- a/dataanalysis/data/predictions/1400/07231447_1448.xlsx
+++ b/dataanalysis/data/predictions/1400/07231447_1448.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="164">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-23</t>
   </si>
   <si>
@@ -503,12 +506,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -866,13 +863,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA86"/>
+  <dimension ref="A1:AB86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,19 +951,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>-2.85</v>
@@ -984,7 +984,7 @@
         <v>41917.14</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K2">
         <v>7</v>
@@ -1004,8 +1004,23 @@
       <c r="P2">
         <v>-0.21</v>
       </c>
+      <c r="Q2">
+        <v>4.63</v>
+      </c>
+      <c r="R2">
+        <v>5.05</v>
+      </c>
+      <c r="S2">
+        <v>5.87</v>
+      </c>
       <c r="V2" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1013,22 +1028,25 @@
       <c r="Z2">
         <v>2.444157361984253</v>
       </c>
-      <c r="AA2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0.04</v>
@@ -1046,7 +1064,7 @@
         <v>137863.63</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K3">
         <v>11</v>
@@ -1066,8 +1084,23 @@
       <c r="P3">
         <v>-0.31</v>
       </c>
+      <c r="Q3">
+        <v>-1.13</v>
+      </c>
+      <c r="R3">
+        <v>23.25</v>
+      </c>
+      <c r="S3">
+        <v>0.04</v>
+      </c>
       <c r="V3" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1075,22 +1108,25 @@
       <c r="Z3">
         <v>1.014650702476501</v>
       </c>
-      <c r="AA3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>11.49</v>
@@ -1108,7 +1144,7 @@
         <v>182803.69</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1128,8 +1164,23 @@
       <c r="P4">
         <v>-4.93</v>
       </c>
+      <c r="Q4">
+        <v>-6.05</v>
+      </c>
+      <c r="R4">
+        <v>6.35</v>
+      </c>
+      <c r="S4">
+        <v>-2.31</v>
+      </c>
       <c r="V4" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -1137,22 +1188,25 @@
       <c r="Z4">
         <v>9.068572044372559</v>
       </c>
-      <c r="AA4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>-2.22</v>
@@ -1170,7 +1224,7 @@
         <v>68592.60000000001</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -1190,8 +1244,23 @@
       <c r="P5">
         <v>-1.01</v>
       </c>
+      <c r="Q5">
+        <v>6.25</v>
+      </c>
+      <c r="R5">
+        <v>6.79</v>
+      </c>
+      <c r="S5">
+        <v>10.05</v>
+      </c>
       <c r="V5" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1199,22 +1268,25 @@
       <c r="Z5">
         <v>0.4515112936496735</v>
       </c>
-      <c r="AA5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300086</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>-3.96</v>
@@ -1232,7 +1304,7 @@
         <v>54872.48</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1252,8 +1324,23 @@
       <c r="P6">
         <v>-1.71</v>
       </c>
+      <c r="Q6">
+        <v>20</v>
+      </c>
+      <c r="R6">
+        <v>7.56</v>
+      </c>
+      <c r="S6">
+        <v>20</v>
+      </c>
       <c r="V6" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1261,22 +1348,25 @@
       <c r="Z6">
         <v>1.179409027099609</v>
       </c>
-      <c r="AA6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300095</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>-11</v>
@@ -1294,7 +1384,7 @@
         <v>137849.68</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1314,8 +1404,23 @@
       <c r="P7">
         <v>-8.109999999999999</v>
       </c>
+      <c r="Q7">
+        <v>2.23</v>
+      </c>
+      <c r="R7">
+        <v>11.65</v>
+      </c>
+      <c r="S7">
+        <v>2.82</v>
+      </c>
       <c r="V7" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1323,22 +1428,25 @@
       <c r="Z7">
         <v>1.068670988082886</v>
       </c>
-      <c r="AA7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300195</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>-3.86</v>
@@ -1356,7 +1464,7 @@
         <v>34444.39</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -1376,8 +1484,23 @@
       <c r="P8">
         <v>-1.37</v>
       </c>
+      <c r="Q8">
+        <v>1.25</v>
+      </c>
+      <c r="R8">
+        <v>8.1</v>
+      </c>
+      <c r="S8">
+        <v>1.63</v>
+      </c>
       <c r="V8" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1385,22 +1508,25 @@
       <c r="Z8">
         <v>1.427482008934021</v>
       </c>
-      <c r="AA8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300199</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>-1.43</v>
@@ -1418,7 +1544,7 @@
         <v>152742.02</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K9">
         <v>16</v>
@@ -1438,8 +1564,23 @@
       <c r="P9">
         <v>-0.53</v>
       </c>
+      <c r="Q9">
+        <v>0.48</v>
+      </c>
+      <c r="R9">
+        <v>18.96</v>
+      </c>
+      <c r="S9">
+        <v>1.72</v>
+      </c>
       <c r="V9" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1447,22 +1588,25 @@
       <c r="Z9">
         <v>3.742699146270752</v>
       </c>
-      <c r="AA9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300254</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>6.78</v>
@@ -1480,7 +1624,7 @@
         <v>58714.87</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1500,8 +1644,23 @@
       <c r="P10">
         <v>1.88</v>
       </c>
+      <c r="Q10">
+        <v>-1.18</v>
+      </c>
+      <c r="R10">
+        <v>11.95</v>
+      </c>
+      <c r="S10">
+        <v>1.19</v>
+      </c>
       <c r="V10" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1509,22 +1668,25 @@
       <c r="Z10">
         <v>4.905491828918457</v>
       </c>
-      <c r="AA10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300265</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>-4.6</v>
@@ -1542,7 +1704,7 @@
         <v>38832.36</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1562,8 +1724,23 @@
       <c r="P11">
         <v>-0.9</v>
       </c>
+      <c r="Q11">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="R11">
+        <v>10.72</v>
+      </c>
+      <c r="S11">
+        <v>1.32</v>
+      </c>
       <c r="V11" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1571,22 +1748,25 @@
       <c r="Z11">
         <v>1.389067649841309</v>
       </c>
-      <c r="AA11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300283</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>-4.07</v>
@@ -1604,7 +1784,7 @@
         <v>38763.82</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -1624,8 +1804,23 @@
       <c r="P12">
         <v>-1.54</v>
       </c>
+      <c r="Q12">
+        <v>5.73</v>
+      </c>
+      <c r="R12">
+        <v>8.18</v>
+      </c>
+      <c r="S12">
+        <v>8.49</v>
+      </c>
       <c r="V12" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1633,22 +1828,25 @@
       <c r="Z12">
         <v>1.001194596290588</v>
       </c>
-      <c r="AA12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300363</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>5.25</v>
@@ -1666,7 +1864,7 @@
         <v>125075.23</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1686,8 +1884,23 @@
       <c r="P13">
         <v>0.04</v>
       </c>
+      <c r="Q13">
+        <v>4.27</v>
+      </c>
+      <c r="R13">
+        <v>22.31</v>
+      </c>
+      <c r="S13">
+        <v>5.94</v>
+      </c>
       <c r="V13" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1695,22 +1908,25 @@
       <c r="Z13">
         <v>5.686460018157959</v>
       </c>
-      <c r="AA13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300405</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>-5.77</v>
@@ -1728,7 +1944,7 @@
         <v>42069.94</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1748,8 +1964,23 @@
       <c r="P14">
         <v>-0.04</v>
       </c>
+      <c r="Q14">
+        <v>-1.04</v>
+      </c>
+      <c r="R14">
+        <v>6.89</v>
+      </c>
+      <c r="S14">
+        <v>2.99</v>
+      </c>
       <c r="V14" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1757,22 +1988,25 @@
       <c r="Z14">
         <v>-1.349079966545105</v>
       </c>
-      <c r="AA14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300414</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>-0.78</v>
@@ -1790,7 +2024,7 @@
         <v>74190.21000000001</v>
       </c>
       <c r="J15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K15">
         <v>8</v>
@@ -1810,8 +2044,23 @@
       <c r="P15">
         <v>-0.35</v>
       </c>
+      <c r="Q15">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="R15">
+        <v>15.89</v>
+      </c>
+      <c r="S15">
+        <v>14.07</v>
+      </c>
       <c r="V15" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1819,22 +2068,25 @@
       <c r="Z15">
         <v>5.396903038024902</v>
       </c>
-      <c r="AA15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300436</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>5.01</v>
@@ -1852,7 +2104,7 @@
         <v>109609.15</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -1872,8 +2124,23 @@
       <c r="P16">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="Q16">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R16">
+        <v>74.5</v>
+      </c>
+      <c r="S16">
+        <v>2.19</v>
+      </c>
       <c r="V16" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1881,22 +2148,25 @@
       <c r="Z16">
         <v>4.628069877624512</v>
       </c>
-      <c r="AA16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300469</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1914,7 +2184,7 @@
         <v>48589.33</v>
       </c>
       <c r="J17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K17">
         <v>7</v>
@@ -1934,8 +2204,23 @@
       <c r="P17">
         <v>-0.19</v>
       </c>
+      <c r="Q17">
+        <v>2.68</v>
+      </c>
+      <c r="R17">
+        <v>46.96</v>
+      </c>
+      <c r="S17">
+        <v>3.82</v>
+      </c>
       <c r="V17" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -1943,22 +2228,25 @@
       <c r="Z17">
         <v>1.604962348937988</v>
       </c>
-      <c r="AA17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300485</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>-4.39</v>
@@ -1976,7 +2264,7 @@
         <v>75967.17</v>
       </c>
       <c r="J18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1996,8 +2284,23 @@
       <c r="P18">
         <v>-1.47</v>
       </c>
+      <c r="Q18">
+        <v>-3.48</v>
+      </c>
+      <c r="R18">
+        <v>16.34</v>
+      </c>
+      <c r="S18">
+        <v>2.77</v>
+      </c>
       <c r="V18" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2005,22 +2308,25 @@
       <c r="Z18">
         <v>2.581544160842896</v>
       </c>
-      <c r="AA18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300490</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>-1.31</v>
@@ -2038,7 +2344,7 @@
         <v>62876.92</v>
       </c>
       <c r="J19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2058,8 +2364,23 @@
       <c r="P19">
         <v>-1.25</v>
       </c>
+      <c r="Q19">
+        <v>10.86</v>
+      </c>
+      <c r="R19">
+        <v>11.44</v>
+      </c>
+      <c r="S19">
+        <v>17.21</v>
+      </c>
       <c r="V19" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2067,22 +2388,25 @@
       <c r="Z19">
         <v>1.331382513046265</v>
       </c>
-      <c r="AA19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300502</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>-1.71</v>
@@ -2100,7 +2424,7 @@
         <v>702520.6800000001</v>
       </c>
       <c r="J20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20">
         <v>21</v>
@@ -2120,8 +2444,23 @@
       <c r="P20">
         <v>-0.2</v>
       </c>
+      <c r="Q20">
+        <v>-0.8</v>
+      </c>
+      <c r="R20">
+        <v>177.33</v>
+      </c>
+      <c r="S20">
+        <v>2.1</v>
+      </c>
       <c r="V20" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2129,22 +2468,25 @@
       <c r="Z20">
         <v>1.162400484085083</v>
       </c>
-      <c r="AA20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300522</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>-4.63</v>
@@ -2162,7 +2504,7 @@
         <v>39364.06</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -2182,8 +2524,23 @@
       <c r="P21">
         <v>-0.63</v>
       </c>
+      <c r="Q21">
+        <v>-0.19</v>
+      </c>
+      <c r="R21">
+        <v>15.85</v>
+      </c>
+      <c r="S21">
+        <v>1.21</v>
+      </c>
       <c r="V21" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2191,22 +2548,25 @@
       <c r="Z21">
         <v>12.1618537902832</v>
       </c>
-      <c r="AA21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300527</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>-6.96</v>
@@ -2224,7 +2584,7 @@
         <v>101487.92</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22">
         <v>17</v>
@@ -2244,8 +2604,23 @@
       <c r="P22">
         <v>-1.2</v>
       </c>
+      <c r="Q22">
+        <v>1.32</v>
+      </c>
+      <c r="R22">
+        <v>11.55</v>
+      </c>
+      <c r="S22">
+        <v>1.58</v>
+      </c>
       <c r="V22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>1</v>
@@ -2253,22 +2628,25 @@
       <c r="Z22">
         <v>5.509311199188232</v>
       </c>
-      <c r="AA22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300528</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>1.78</v>
@@ -2286,7 +2664,7 @@
         <v>39155.94</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2306,8 +2684,23 @@
       <c r="P23">
         <v>-0.15</v>
       </c>
+      <c r="Q23">
+        <v>20.02</v>
+      </c>
+      <c r="R23">
+        <v>14.27</v>
+      </c>
+      <c r="S23">
+        <v>19.12</v>
+      </c>
       <c r="V23" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>1</v>
@@ -2315,22 +2708,25 @@
       <c r="Z23">
         <v>5.454632759094238</v>
       </c>
-      <c r="AA23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300533</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>0.58</v>
@@ -2348,7 +2744,7 @@
         <v>62682.35</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K24">
         <v>21</v>
@@ -2368,8 +2764,23 @@
       <c r="P24">
         <v>0.49</v>
       </c>
+      <c r="Q24">
+        <v>-2.62</v>
+      </c>
+      <c r="R24">
+        <v>36.85</v>
+      </c>
+      <c r="S24">
+        <v>0.55</v>
+      </c>
       <c r="V24" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2377,22 +2788,25 @@
       <c r="Z24">
         <v>4.745299816131592</v>
       </c>
-      <c r="AA24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300537</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>-2.43</v>
@@ -2410,7 +2824,7 @@
         <v>37365.7</v>
       </c>
       <c r="J25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K25">
         <v>18</v>
@@ -2430,8 +2844,23 @@
       <c r="P25">
         <v>-1.55</v>
       </c>
+      <c r="Q25">
+        <v>1.8</v>
+      </c>
+      <c r="R25">
+        <v>25.26</v>
+      </c>
+      <c r="S25">
+        <v>3.1</v>
+      </c>
       <c r="V25" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2439,22 +2868,25 @@
       <c r="Z25">
         <v>1.470014333724976</v>
       </c>
-      <c r="AA25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300548</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>2.99</v>
@@ -2472,7 +2904,7 @@
         <v>226486.58</v>
       </c>
       <c r="J26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K26">
         <v>7</v>
@@ -2492,8 +2924,23 @@
       <c r="P26">
         <v>0.61</v>
       </c>
+      <c r="Q26">
+        <v>-6.41</v>
+      </c>
+      <c r="R26">
+        <v>92.18000000000001</v>
+      </c>
+      <c r="S26">
+        <v>3.08</v>
+      </c>
       <c r="V26" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2501,22 +2948,25 @@
       <c r="Z26">
         <v>5.798868656158447</v>
       </c>
-      <c r="AA26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300564</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>19.99</v>
@@ -2534,7 +2984,7 @@
         <v>105308.17</v>
       </c>
       <c r="J27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2554,8 +3004,23 @@
       <c r="P27">
         <v>-13.6</v>
       </c>
+      <c r="Q27">
+        <v>-10.11</v>
+      </c>
+      <c r="R27">
+        <v>23.85</v>
+      </c>
+      <c r="S27">
+        <v>-4.71</v>
+      </c>
       <c r="V27" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>1</v>
@@ -2563,22 +3028,25 @@
       <c r="Z27">
         <v>6.779088020324707</v>
       </c>
-      <c r="AA27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300581</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>-4.42</v>
@@ -2596,7 +3064,7 @@
         <v>111697.25</v>
       </c>
       <c r="J28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2616,8 +3084,23 @@
       <c r="P28">
         <v>-1.01</v>
       </c>
+      <c r="Q28">
+        <v>4.18</v>
+      </c>
+      <c r="R28">
+        <v>21.59</v>
+      </c>
+      <c r="S28">
+        <v>6.09</v>
+      </c>
       <c r="V28" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2625,22 +3108,25 @@
       <c r="Z28">
         <v>10.24005794525146</v>
       </c>
-      <c r="AA28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300591</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>-8.92</v>
@@ -2658,7 +3144,7 @@
         <v>112074.14</v>
       </c>
       <c r="J29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K29">
         <v>22</v>
@@ -2678,8 +3164,23 @@
       <c r="P29">
         <v>-2.93</v>
       </c>
+      <c r="Q29">
+        <v>-0.52</v>
+      </c>
+      <c r="R29">
+        <v>11.94</v>
+      </c>
+      <c r="S29">
+        <v>0.84</v>
+      </c>
       <c r="V29" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2687,22 +3188,25 @@
       <c r="Z29">
         <v>1.180935144424438</v>
       </c>
-      <c r="AA29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300600</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>-6.82</v>
@@ -2720,7 +3224,7 @@
         <v>36412.36</v>
       </c>
       <c r="J30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K30">
         <v>19</v>
@@ -2740,8 +3244,23 @@
       <c r="P30">
         <v>-0.57</v>
       </c>
+      <c r="Q30">
+        <v>1.15</v>
+      </c>
+      <c r="R30">
+        <v>14.98</v>
+      </c>
+      <c r="S30">
+        <v>1.56</v>
+      </c>
       <c r="V30" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2749,22 +3268,25 @@
       <c r="Z30">
         <v>6.280785083770752</v>
       </c>
-      <c r="AA30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300617</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>-12.45</v>
@@ -2782,7 +3304,7 @@
         <v>108958.16</v>
       </c>
       <c r="J31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2802,8 +3324,23 @@
       <c r="P31">
         <v>-1.69</v>
       </c>
+      <c r="Q31">
+        <v>-3.14</v>
+      </c>
+      <c r="R31">
+        <v>38.7</v>
+      </c>
+      <c r="S31">
+        <v>0.29</v>
+      </c>
       <c r="V31" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2811,22 +3348,25 @@
       <c r="Z31">
         <v>2.45734691619873</v>
       </c>
-      <c r="AA31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300631</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>5.1</v>
@@ -2844,7 +3384,7 @@
         <v>92351.36</v>
       </c>
       <c r="J32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K32">
         <v>8</v>
@@ -2864,8 +3404,23 @@
       <c r="P32">
         <v>0.47</v>
       </c>
+      <c r="Q32">
+        <v>2.03</v>
+      </c>
+      <c r="R32">
+        <v>37</v>
+      </c>
+      <c r="S32">
+        <v>8.859999999999999</v>
+      </c>
       <c r="V32" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
       </c>
       <c r="Y32">
         <v>1</v>
@@ -2873,22 +3428,25 @@
       <c r="Z32">
         <v>5.876916408538818</v>
       </c>
-      <c r="AA32" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300644</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>-4.72</v>
@@ -2906,7 +3464,7 @@
         <v>51096.5</v>
       </c>
       <c r="J33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -2926,8 +3484,23 @@
       <c r="P33">
         <v>-1.01</v>
       </c>
+      <c r="Q33">
+        <v>-0.77</v>
+      </c>
+      <c r="R33">
+        <v>32.97</v>
+      </c>
+      <c r="S33">
+        <v>1.38</v>
+      </c>
       <c r="V33" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2935,22 +3508,25 @@
       <c r="Z33">
         <v>10.38886833190918</v>
       </c>
-      <c r="AA33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300665</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>-11.8</v>
@@ -2968,7 +3544,7 @@
         <v>52128.99</v>
       </c>
       <c r="J34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2988,8 +3564,23 @@
       <c r="P34">
         <v>-1.38</v>
       </c>
+      <c r="Q34">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="R34">
+        <v>10.2</v>
+      </c>
+      <c r="S34">
+        <v>1.09</v>
+      </c>
       <c r="V34" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2997,22 +3588,25 @@
       <c r="Z34">
         <v>0.9620668292045593</v>
       </c>
-      <c r="AA34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>300683</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>8.26</v>
@@ -3030,7 +3624,7 @@
         <v>97053.59</v>
       </c>
       <c r="J35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -3050,8 +3644,23 @@
       <c r="P35">
         <v>-0.37</v>
       </c>
+      <c r="Q35">
+        <v>-2.63</v>
+      </c>
+      <c r="R35">
+        <v>46.2</v>
+      </c>
+      <c r="S35">
+        <v>4.55</v>
+      </c>
       <c r="V35" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3059,22 +3668,25 @@
       <c r="Z35">
         <v>1.324791431427002</v>
       </c>
-      <c r="AA35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>300697</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>-4.61</v>
@@ -3092,7 +3704,7 @@
         <v>37083.48</v>
       </c>
       <c r="J36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3112,8 +3724,23 @@
       <c r="P36">
         <v>-0.47</v>
       </c>
+      <c r="Q36">
+        <v>2.29</v>
+      </c>
+      <c r="R36">
+        <v>14.84</v>
+      </c>
+      <c r="S36">
+        <v>2.56</v>
+      </c>
       <c r="V36" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3121,22 +3748,25 @@
       <c r="Z36">
         <v>3.870031356811523</v>
       </c>
-      <c r="AA36" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>300703</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>0.77</v>
@@ -3154,7 +3784,7 @@
         <v>22366.62</v>
       </c>
       <c r="J37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K37">
         <v>9</v>
@@ -3174,8 +3804,23 @@
       <c r="P37">
         <v>-0.33</v>
       </c>
+      <c r="Q37">
+        <v>-3.13</v>
+      </c>
+      <c r="R37">
+        <v>25.15</v>
+      </c>
+      <c r="S37">
+        <v>1.09</v>
+      </c>
       <c r="V37" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3183,22 +3828,25 @@
       <c r="Z37">
         <v>2.67534065246582</v>
       </c>
-      <c r="AA37" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>300722</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>-9.17</v>
@@ -3216,7 +3864,7 @@
         <v>140768.41</v>
       </c>
       <c r="J38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -3236,8 +3884,23 @@
       <c r="P38">
         <v>-0.23</v>
       </c>
+      <c r="Q38">
+        <v>-1.2</v>
+      </c>
+      <c r="R38">
+        <v>39.38</v>
+      </c>
+      <c r="S38">
+        <v>1.16</v>
+      </c>
       <c r="V38" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3245,22 +3908,25 @@
       <c r="Z38">
         <v>8.291990280151367</v>
       </c>
-      <c r="AA38" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>300748</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>-0.79</v>
@@ -3278,7 +3944,7 @@
         <v>148191.94</v>
       </c>
       <c r="J39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K39">
         <v>9</v>
@@ -3298,8 +3964,23 @@
       <c r="P39">
         <v>-0.24</v>
       </c>
+      <c r="Q39">
+        <v>9.94</v>
+      </c>
+      <c r="R39">
+        <v>29.79</v>
+      </c>
+      <c r="S39">
+        <v>12.71</v>
+      </c>
       <c r="V39" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>1</v>
@@ -3307,22 +3988,25 @@
       <c r="Z39">
         <v>5.019900798797607</v>
       </c>
-      <c r="AA39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>300767</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>-3.46</v>
@@ -3340,7 +4024,7 @@
         <v>37309.5</v>
       </c>
       <c r="J40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -3360,8 +4044,23 @@
       <c r="P40">
         <v>-0.75</v>
       </c>
+      <c r="Q40">
+        <v>-1.44</v>
+      </c>
+      <c r="R40">
+        <v>13.88</v>
+      </c>
+      <c r="S40">
+        <v>-0.57</v>
+      </c>
       <c r="V40" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3369,22 +4068,25 @@
       <c r="Z40">
         <v>2.731957912445068</v>
       </c>
-      <c r="AA40" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>300803</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>2.39</v>
@@ -3402,7 +4104,7 @@
         <v>623583.03</v>
       </c>
       <c r="J41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K41">
         <v>19</v>
@@ -3422,8 +4124,23 @@
       <c r="P41">
         <v>0.38</v>
       </c>
+      <c r="Q41">
+        <v>7.76</v>
+      </c>
+      <c r="R41">
+        <v>95.58</v>
+      </c>
+      <c r="S41">
+        <v>8.390000000000001</v>
+      </c>
       <c r="V41" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3431,22 +4148,25 @@
       <c r="Z41">
         <v>3.752557277679443</v>
       </c>
-      <c r="AA41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>300835</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>5.59</v>
@@ -3464,7 +4184,7 @@
         <v>81024.69</v>
       </c>
       <c r="J42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -3484,8 +4204,23 @@
       <c r="P42">
         <v>-0.13</v>
       </c>
+      <c r="Q42">
+        <v>15.14</v>
+      </c>
+      <c r="R42">
+        <v>63.58</v>
+      </c>
+      <c r="S42">
+        <v>21.15</v>
+      </c>
       <c r="V42" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
       </c>
       <c r="Y42">
         <v>1</v>
@@ -3493,22 +4228,25 @@
       <c r="Z42">
         <v>6.737642288208008</v>
       </c>
-      <c r="AA42" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>300847</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>-5.57</v>
@@ -3526,7 +4264,7 @@
         <v>37284.56</v>
       </c>
       <c r="J43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -3546,8 +4284,23 @@
       <c r="P43">
         <v>-0.98</v>
       </c>
+      <c r="Q43">
+        <v>1.14</v>
+      </c>
+      <c r="R43">
+        <v>19.56</v>
+      </c>
+      <c r="S43">
+        <v>1.19</v>
+      </c>
       <c r="V43" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>1</v>
@@ -3555,22 +4308,25 @@
       <c r="Z43">
         <v>2.268171310424805</v>
       </c>
-      <c r="AA43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>300865</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>2.3</v>
@@ -3588,7 +4344,7 @@
         <v>103325.13</v>
       </c>
       <c r="J44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -3608,8 +4364,23 @@
       <c r="P44">
         <v>-2.45</v>
       </c>
+      <c r="Q44">
+        <v>-6.58</v>
+      </c>
+      <c r="R44">
+        <v>43.18</v>
+      </c>
+      <c r="S44">
+        <v>-3.74</v>
+      </c>
       <c r="V44" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3617,22 +4388,25 @@
       <c r="Z44">
         <v>6.835230350494385</v>
       </c>
-      <c r="AA44" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>300872</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>-7.68</v>
@@ -3650,7 +4424,7 @@
         <v>155549.94</v>
       </c>
       <c r="J45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K45">
         <v>28</v>
@@ -3670,8 +4444,23 @@
       <c r="P45">
         <v>-1.39</v>
       </c>
+      <c r="Q45">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="R45">
+        <v>26.41</v>
+      </c>
+      <c r="S45">
+        <v>12.72</v>
+      </c>
       <c r="V45" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
       </c>
       <c r="Y45">
         <v>1</v>
@@ -3679,22 +4468,25 @@
       <c r="Z45">
         <v>2.927924633026123</v>
       </c>
-      <c r="AA45" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>300881</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>11.78</v>
@@ -3712,7 +4504,7 @@
         <v>70571.64</v>
       </c>
       <c r="J46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -3732,8 +4524,23 @@
       <c r="P46">
         <v>0.68</v>
       </c>
+      <c r="Q46">
+        <v>-3.52</v>
+      </c>
+      <c r="R46">
+        <v>41.49</v>
+      </c>
+      <c r="S46">
+        <v>-2.83</v>
+      </c>
       <c r="V46" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3741,22 +4548,25 @@
       <c r="Z46">
         <v>3.918538808822632</v>
       </c>
-      <c r="AA46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>300885</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>12.69</v>
@@ -3774,7 +4584,7 @@
         <v>52086.28</v>
       </c>
       <c r="J47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -3794,8 +4604,23 @@
       <c r="P47">
         <v>1.54</v>
       </c>
+      <c r="Q47">
+        <v>4.73</v>
+      </c>
+      <c r="R47">
+        <v>20.41</v>
+      </c>
+      <c r="S47">
+        <v>13.2</v>
+      </c>
       <c r="V47" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3803,22 +4628,25 @@
       <c r="Z47">
         <v>4.429474830627441</v>
       </c>
-      <c r="AA47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>300897</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>1.85</v>
@@ -3836,7 +4664,7 @@
         <v>38520.32</v>
       </c>
       <c r="J48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K48">
         <v>7</v>
@@ -3856,8 +4684,23 @@
       <c r="P48">
         <v>0.85</v>
       </c>
+      <c r="Q48">
+        <v>-0.8</v>
+      </c>
+      <c r="R48">
+        <v>29.58</v>
+      </c>
+      <c r="S48">
+        <v>3.1</v>
+      </c>
       <c r="V48" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3865,22 +4708,25 @@
       <c r="Z48">
         <v>5.276618957519531</v>
       </c>
-      <c r="AA48" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>300950</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>0.14</v>
@@ -3898,7 +4744,7 @@
         <v>49042.29</v>
       </c>
       <c r="J49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K49">
         <v>7</v>
@@ -3918,8 +4764,23 @@
       <c r="P49">
         <v>0.72</v>
       </c>
+      <c r="Q49">
+        <v>-0.67</v>
+      </c>
+      <c r="R49">
+        <v>29.83</v>
+      </c>
+      <c r="S49">
+        <v>0.57</v>
+      </c>
       <c r="V49" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3927,22 +4788,25 @@
       <c r="Z49">
         <v>5.46538782119751</v>
       </c>
-      <c r="AA49" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>301007</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>-0.58</v>
@@ -3960,7 +4824,7 @@
         <v>26222.38</v>
       </c>
       <c r="J50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -3980,8 +4844,23 @@
       <c r="P50">
         <v>0.26</v>
       </c>
+      <c r="Q50">
+        <v>1.17</v>
+      </c>
+      <c r="R50">
+        <v>33.66</v>
+      </c>
+      <c r="S50">
+        <v>3.79</v>
+      </c>
       <c r="V50" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>1</v>
@@ -3989,22 +4868,25 @@
       <c r="Z50">
         <v>6.555011749267578</v>
       </c>
-      <c r="AA50" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301012</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>-4.22</v>
@@ -4022,7 +4904,7 @@
         <v>46697.64</v>
       </c>
       <c r="J51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K51">
         <v>5</v>
@@ -4042,8 +4924,23 @@
       <c r="P51">
         <v>-2.96</v>
       </c>
+      <c r="Q51">
+        <v>0.14</v>
+      </c>
+      <c r="R51">
+        <v>22.39</v>
+      </c>
+      <c r="S51">
+        <v>1.73</v>
+      </c>
       <c r="V51" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -4051,22 +4948,25 @@
       <c r="Z51">
         <v>3.685960292816162</v>
       </c>
-      <c r="AA51" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>301038</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>20.02</v>
@@ -4084,7 +4984,7 @@
         <v>43177.41</v>
       </c>
       <c r="J52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -4104,8 +5004,23 @@
       <c r="P52">
         <v>0.34</v>
       </c>
+      <c r="Q52">
+        <v>19.99</v>
+      </c>
+      <c r="R52">
+        <v>33.38</v>
+      </c>
+      <c r="S52">
+        <v>19.99</v>
+      </c>
       <c r="V52" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
       </c>
       <c r="Y52">
         <v>1</v>
@@ -4113,22 +5028,25 @@
       <c r="Z52">
         <v>20.56352615356445</v>
       </c>
-      <c r="AA52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>301120</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>-4.44</v>
@@ -4146,7 +5064,7 @@
         <v>30575.35</v>
       </c>
       <c r="J53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K53">
         <v>3</v>
@@ -4166,8 +5084,23 @@
       <c r="P53">
         <v>-1.17</v>
       </c>
+      <c r="Q53">
+        <v>1.66</v>
+      </c>
+      <c r="R53">
+        <v>12.24</v>
+      </c>
+      <c r="S53">
+        <v>1.49</v>
+      </c>
       <c r="V53" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -4175,22 +5108,25 @@
       <c r="Z53">
         <v>3.478671073913574</v>
       </c>
-      <c r="AA53" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>301132</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>-1.89</v>
@@ -4208,7 +5144,7 @@
         <v>29948.6</v>
       </c>
       <c r="J54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K54">
         <v>5</v>
@@ -4228,8 +5164,23 @@
       <c r="P54">
         <v>0.62</v>
       </c>
+      <c r="Q54">
+        <v>0.52</v>
+      </c>
+      <c r="R54">
+        <v>37.16</v>
+      </c>
+      <c r="S54">
+        <v>2.54</v>
+      </c>
       <c r="V54" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>1</v>
@@ -4237,22 +5188,25 @@
       <c r="Z54">
         <v>7.875959396362305</v>
       </c>
-      <c r="AA54" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>301141</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>0.12</v>
@@ -4270,7 +5224,7 @@
         <v>60592.04</v>
       </c>
       <c r="J55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K55">
         <v>19</v>
@@ -4290,8 +5244,23 @@
       <c r="P55">
         <v>-0.51</v>
       </c>
+      <c r="Q55">
+        <v>3.98</v>
+      </c>
+      <c r="R55">
+        <v>73.2</v>
+      </c>
+      <c r="S55">
+        <v>8.640000000000001</v>
+      </c>
       <c r="V55" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -4299,22 +5268,25 @@
       <c r="Z55">
         <v>-1.386259078979492</v>
       </c>
-      <c r="AA55" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>301151</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>-1.53</v>
@@ -4332,7 +5304,7 @@
         <v>106181.32</v>
       </c>
       <c r="J56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -4352,8 +5324,23 @@
       <c r="P56">
         <v>-9.970000000000001</v>
       </c>
+      <c r="Q56">
+        <v>1.49</v>
+      </c>
+      <c r="R56">
+        <v>26.47</v>
+      </c>
+      <c r="S56">
+        <v>5.16</v>
+      </c>
       <c r="V56" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -4361,22 +5348,25 @@
       <c r="Z56">
         <v>3.526350259780884</v>
       </c>
-      <c r="AA56" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>301161</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>-14.19</v>
@@ -4394,7 +5384,7 @@
         <v>109834.74</v>
       </c>
       <c r="J57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -4414,8 +5404,23 @@
       <c r="P57">
         <v>-11.58</v>
       </c>
+      <c r="Q57">
+        <v>-0.03</v>
+      </c>
+      <c r="R57">
+        <v>31.77</v>
+      </c>
+      <c r="S57">
+        <v>4.27</v>
+      </c>
       <c r="V57" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4423,22 +5428,25 @@
       <c r="Z57">
         <v>1.983732461929321</v>
       </c>
-      <c r="AA57" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>301165</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>2.01</v>
@@ -4456,7 +5464,7 @@
         <v>51684.38</v>
       </c>
       <c r="J58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K58">
         <v>6</v>
@@ -4476,8 +5484,23 @@
       <c r="P58">
         <v>0.04</v>
       </c>
+      <c r="Q58">
+        <v>-4.21</v>
+      </c>
+      <c r="R58">
+        <v>63.58</v>
+      </c>
+      <c r="S58">
+        <v>0.84</v>
+      </c>
       <c r="V58" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4485,22 +5508,25 @@
       <c r="Z58">
         <v>2.067495107650757</v>
       </c>
-      <c r="AA58" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>301183</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>-2</v>
@@ -4518,7 +5544,7 @@
         <v>41276.09</v>
       </c>
       <c r="J59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K59">
         <v>6</v>
@@ -4538,8 +5564,23 @@
       <c r="P59">
         <v>0.02</v>
       </c>
+      <c r="Q59">
+        <v>-2.43</v>
+      </c>
+      <c r="R59">
+        <v>69.59</v>
+      </c>
+      <c r="S59">
+        <v>2.38</v>
+      </c>
       <c r="V59" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4547,22 +5588,25 @@
       <c r="Z59">
         <v>4.942643642425537</v>
       </c>
-      <c r="AA59" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>301201</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>-12.83</v>
@@ -4580,7 +5624,7 @@
         <v>59845.45</v>
       </c>
       <c r="J60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -4600,8 +5644,23 @@
       <c r="P60">
         <v>0.36</v>
       </c>
+      <c r="Q60">
+        <v>-1.27</v>
+      </c>
+      <c r="R60">
+        <v>28.32</v>
+      </c>
+      <c r="S60">
+        <v>2.2</v>
+      </c>
       <c r="V60" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>1</v>
@@ -4609,22 +5668,25 @@
       <c r="Z60">
         <v>5.712780475616455</v>
       </c>
-      <c r="AA60" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>301217</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <v>-1.8</v>
@@ -4642,7 +5704,7 @@
         <v>87240.42</v>
       </c>
       <c r="J61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K61">
         <v>13</v>
@@ -4662,8 +5724,23 @@
       <c r="P61">
         <v>-0.36</v>
       </c>
+      <c r="Q61">
+        <v>20.02</v>
+      </c>
+      <c r="R61">
+        <v>23.44</v>
+      </c>
+      <c r="S61">
+        <v>19.23</v>
+      </c>
       <c r="V61" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -4671,22 +5748,25 @@
       <c r="Z61">
         <v>7.167974948883057</v>
       </c>
-      <c r="AA61" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>301306</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <v>0.52</v>
@@ -4704,7 +5784,7 @@
         <v>34863.1</v>
       </c>
       <c r="J62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -4724,8 +5804,23 @@
       <c r="P62">
         <v>1</v>
       </c>
+      <c r="Q62">
+        <v>-1.26</v>
+      </c>
+      <c r="R62">
+        <v>57.85</v>
+      </c>
+      <c r="S62">
+        <v>2.77</v>
+      </c>
       <c r="V62" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -4733,22 +5828,25 @@
       <c r="Z62">
         <v>3.603393793106079</v>
       </c>
-      <c r="AA62" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>301357</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>-10.06</v>
@@ -4766,7 +5864,7 @@
         <v>71602.60000000001</v>
       </c>
       <c r="J63" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K63">
         <v>6</v>
@@ -4786,8 +5884,23 @@
       <c r="P63">
         <v>-2.29</v>
       </c>
+      <c r="Q63">
+        <v>1.13</v>
+      </c>
+      <c r="R63">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="S63">
+        <v>1.26</v>
+      </c>
       <c r="V63" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -4795,22 +5908,25 @@
       <c r="Z63">
         <v>0.4667217433452606</v>
       </c>
-      <c r="AA63" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>301377</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64">
         <v>5.24</v>
@@ -4828,7 +5944,7 @@
         <v>58243.49</v>
       </c>
       <c r="J64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K64">
         <v>7</v>
@@ -4848,8 +5964,23 @@
       <c r="P64">
         <v>-0.66</v>
       </c>
+      <c r="Q64">
+        <v>-2.01</v>
+      </c>
+      <c r="R64">
+        <v>49.55</v>
+      </c>
+      <c r="S64">
+        <v>3.7</v>
+      </c>
       <c r="V64" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -4857,22 +5988,25 @@
       <c r="Z64">
         <v>1.564618229866028</v>
       </c>
-      <c r="AA64" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>301389</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65">
         <v>0.53</v>
@@ -4890,7 +6024,7 @@
         <v>39353.72</v>
       </c>
       <c r="J65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K65">
         <v>12</v>
@@ -4910,8 +6044,23 @@
       <c r="P65">
         <v>-2.06</v>
       </c>
+      <c r="Q65">
+        <v>4.34</v>
+      </c>
+      <c r="R65">
+        <v>33.9</v>
+      </c>
+      <c r="S65">
+        <v>5.87</v>
+      </c>
       <c r="V65" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -4919,22 +6068,25 @@
       <c r="Z65">
         <v>1.180087566375732</v>
       </c>
-      <c r="AA65" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>301408</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66">
         <v>2.15</v>
@@ -4952,7 +6104,7 @@
         <v>39549.65</v>
       </c>
       <c r="J66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -4972,8 +6124,23 @@
       <c r="P66">
         <v>0.96</v>
       </c>
+      <c r="Q66">
+        <v>-1.62</v>
+      </c>
+      <c r="R66">
+        <v>14.91</v>
+      </c>
+      <c r="S66">
+        <v>1.36</v>
+      </c>
       <c r="V66" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -4981,22 +6148,25 @@
       <c r="Z66">
         <v>3.836129188537598</v>
       </c>
-      <c r="AA66" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>301421</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67">
         <v>1.07</v>
@@ -5014,7 +6184,7 @@
         <v>50185.83</v>
       </c>
       <c r="J67" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K67">
         <v>23</v>
@@ -5034,8 +6204,23 @@
       <c r="P67">
         <v>0.49</v>
       </c>
+      <c r="Q67">
+        <v>4.28</v>
+      </c>
+      <c r="R67">
+        <v>80.45</v>
+      </c>
+      <c r="S67">
+        <v>6.27</v>
+      </c>
       <c r="V67" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
       </c>
       <c r="Y67">
         <v>1</v>
@@ -5043,22 +6228,25 @@
       <c r="Z67">
         <v>6.945437908172607</v>
       </c>
-      <c r="AA67" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>301511</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68">
         <v>-3.23</v>
@@ -5076,7 +6264,7 @@
         <v>85014.39</v>
       </c>
       <c r="J68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K68">
         <v>22</v>
@@ -5096,8 +6284,23 @@
       <c r="P68">
         <v>-0.16</v>
       </c>
+      <c r="Q68">
+        <v>7.82</v>
+      </c>
+      <c r="R68">
+        <v>29.37</v>
+      </c>
+      <c r="S68">
+        <v>10.12</v>
+      </c>
       <c r="V68" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -5105,22 +6308,25 @@
       <c r="Z68">
         <v>2.582756280899048</v>
       </c>
-      <c r="AA68" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>301526</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69">
         <v>-2.03</v>
@@ -5138,7 +6344,7 @@
         <v>48067.25</v>
       </c>
       <c r="J69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K69">
         <v>12</v>
@@ -5158,8 +6364,23 @@
       <c r="P69">
         <v>-1.12</v>
       </c>
+      <c r="Q69">
+        <v>1.87</v>
+      </c>
+      <c r="R69">
+        <v>4.99</v>
+      </c>
+      <c r="S69">
+        <v>3.53</v>
+      </c>
       <c r="V69" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
       </c>
       <c r="Y69">
         <v>1</v>
@@ -5167,22 +6388,25 @@
       <c r="Z69">
         <v>5.264120101928711</v>
       </c>
-      <c r="AA69" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70">
         <v>301529</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70">
         <v>8.880000000000001</v>
@@ -5200,7 +6424,7 @@
         <v>47133.55</v>
       </c>
       <c r="J70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K70">
         <v>3</v>
@@ -5220,8 +6444,23 @@
       <c r="P70">
         <v>-1.39</v>
       </c>
+      <c r="Q70">
+        <v>1.69</v>
+      </c>
+      <c r="R70">
+        <v>58.22</v>
+      </c>
+      <c r="S70">
+        <v>7.16</v>
+      </c>
       <c r="V70" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
       </c>
       <c r="Y70">
         <v>0</v>
@@ -5229,22 +6468,25 @@
       <c r="Z70">
         <v>1.110987901687622</v>
       </c>
-      <c r="AA70" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71">
         <v>301626</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71">
         <v>5.78</v>
@@ -5262,7 +6504,7 @@
         <v>45978.6</v>
       </c>
       <c r="J71" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -5282,8 +6524,23 @@
       <c r="P71">
         <v>1.24</v>
       </c>
+      <c r="Q71">
+        <v>2.92</v>
+      </c>
+      <c r="R71">
+        <v>142.88</v>
+      </c>
+      <c r="S71">
+        <v>4.38</v>
+      </c>
       <c r="V71" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -5291,22 +6548,25 @@
       <c r="Z71">
         <v>1.55335545539856</v>
       </c>
-      <c r="AA71" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C72">
         <v>688062</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72">
         <v>-1.08</v>
@@ -5324,7 +6584,7 @@
         <v>64528.53</v>
       </c>
       <c r="J72" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K72">
         <v>15</v>
@@ -5344,8 +6604,23 @@
       <c r="P72">
         <v>-1.06</v>
       </c>
+      <c r="Q72">
+        <v>-0.54</v>
+      </c>
+      <c r="R72">
+        <v>34.42</v>
+      </c>
+      <c r="S72">
+        <v>4.15</v>
+      </c>
       <c r="V72" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
       </c>
       <c r="Y72">
         <v>0</v>
@@ -5353,22 +6628,25 @@
       <c r="Z72">
         <v>4.545324325561523</v>
       </c>
-      <c r="AA72" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27">
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73">
         <v>688084</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E73">
         <v>1.74</v>
@@ -5386,7 +6664,7 @@
         <v>31038.25</v>
       </c>
       <c r="J73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -5406,8 +6684,23 @@
       <c r="P73">
         <v>-0.05</v>
       </c>
+      <c r="Q73">
+        <v>-3.26</v>
+      </c>
+      <c r="R73">
+        <v>111.66</v>
+      </c>
+      <c r="S73">
+        <v>-0.13</v>
+      </c>
       <c r="V73" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
       </c>
       <c r="Y73">
         <v>0</v>
@@ -5415,22 +6708,25 @@
       <c r="Z73">
         <v>2.141471385955811</v>
       </c>
-      <c r="AA73" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27">
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C74">
         <v>688117</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E74">
         <v>-2.1</v>
@@ -5448,7 +6744,7 @@
         <v>39314.76</v>
       </c>
       <c r="J74" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K74">
         <v>7</v>
@@ -5468,8 +6764,23 @@
       <c r="P74">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="Q74">
+        <v>1.11</v>
+      </c>
+      <c r="R74">
+        <v>40.29</v>
+      </c>
+      <c r="S74">
+        <v>1.82</v>
+      </c>
       <c r="V74" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
       </c>
       <c r="Y74">
         <v>0</v>
@@ -5477,22 +6788,25 @@
       <c r="Z74">
         <v>3.064041137695312</v>
       </c>
-      <c r="AA74" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27">
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75">
         <v>688202</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75">
         <v>8.59</v>
@@ -5510,7 +6824,7 @@
         <v>79584.05</v>
       </c>
       <c r="J75" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K75">
         <v>12</v>
@@ -5530,8 +6844,23 @@
       <c r="P75">
         <v>0.28</v>
       </c>
+      <c r="Q75">
+        <v>3.13</v>
+      </c>
+      <c r="R75">
+        <v>68.5</v>
+      </c>
+      <c r="S75">
+        <v>6.28</v>
+      </c>
       <c r="V75" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
       </c>
       <c r="Y75">
         <v>0</v>
@@ -5539,22 +6868,25 @@
       <c r="Z75">
         <v>3.335391283035278</v>
       </c>
-      <c r="AA75" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27">
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76">
         <v>688221</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E76">
         <v>-5.24</v>
@@ -5572,7 +6904,7 @@
         <v>77220.49000000001</v>
       </c>
       <c r="J76" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K76">
         <v>13</v>
@@ -5592,8 +6924,23 @@
       <c r="P76">
         <v>-0.77</v>
       </c>
+      <c r="Q76">
+        <v>-9.460000000000001</v>
+      </c>
+      <c r="R76">
+        <v>24.2</v>
+      </c>
+      <c r="S76">
+        <v>7.08</v>
+      </c>
       <c r="V76" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>1</v>
       </c>
       <c r="Y76">
         <v>0</v>
@@ -5601,22 +6948,25 @@
       <c r="Z76">
         <v>4.237757205963135</v>
       </c>
-      <c r="AA76" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27">
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C77">
         <v>688222</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E77">
         <v>-3.49</v>
@@ -5634,7 +6984,7 @@
         <v>91870.87</v>
       </c>
       <c r="J77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K77">
         <v>4</v>
@@ -5654,8 +7004,23 @@
       <c r="P77">
         <v>-0.28</v>
       </c>
+      <c r="Q77">
+        <v>0.75</v>
+      </c>
+      <c r="R77">
+        <v>25.93</v>
+      </c>
+      <c r="S77">
+        <v>9</v>
+      </c>
       <c r="V77" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
       </c>
       <c r="Y77">
         <v>0</v>
@@ -5663,22 +7028,25 @@
       <c r="Z77">
         <v>3.368732452392578</v>
       </c>
-      <c r="AA77" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27">
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C78">
         <v>688257</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78">
         <v>-9.85</v>
@@ -5696,7 +7064,7 @@
         <v>47172.35</v>
       </c>
       <c r="J78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -5716,8 +7084,23 @@
       <c r="P78">
         <v>-0.93</v>
       </c>
+      <c r="Q78">
+        <v>1.44</v>
+      </c>
+      <c r="R78">
+        <v>18.18</v>
+      </c>
+      <c r="S78">
+        <v>3.95</v>
+      </c>
       <c r="V78" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
       </c>
       <c r="Y78">
         <v>0</v>
@@ -5725,22 +7108,25 @@
       <c r="Z78">
         <v>1.75697934627533</v>
       </c>
-      <c r="AA78" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27">
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C79">
         <v>688313</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79">
         <v>4.73</v>
@@ -5758,7 +7144,7 @@
         <v>186764.36</v>
       </c>
       <c r="J79" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K79">
         <v>26</v>
@@ -5778,8 +7164,23 @@
       <c r="P79">
         <v>0.43</v>
       </c>
+      <c r="Q79">
+        <v>-7.19</v>
+      </c>
+      <c r="R79">
+        <v>59.3</v>
+      </c>
+      <c r="S79">
+        <v>2.22</v>
+      </c>
       <c r="V79" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
       </c>
       <c r="Y79">
         <v>1</v>
@@ -5787,22 +7188,25 @@
       <c r="Z79">
         <v>11.8309965133667</v>
       </c>
-      <c r="AA79" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27">
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C80">
         <v>688321</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E80">
         <v>-3.92</v>
@@ -5820,7 +7224,7 @@
         <v>69496.14999999999</v>
       </c>
       <c r="J80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K80">
         <v>17</v>
@@ -5840,8 +7244,23 @@
       <c r="P80">
         <v>-0.48</v>
       </c>
+      <c r="Q80">
+        <v>-0.66</v>
+      </c>
+      <c r="R80">
+        <v>37.29</v>
+      </c>
+      <c r="S80">
+        <v>6.42</v>
+      </c>
       <c r="V80" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
       </c>
       <c r="Y80">
         <v>0</v>
@@ -5849,22 +7268,25 @@
       <c r="Z80">
         <v>4.504117965698242</v>
       </c>
-      <c r="AA80" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27">
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C81">
         <v>688360</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E81">
         <v>-4.13</v>
@@ -5882,7 +7304,7 @@
         <v>34887.59</v>
       </c>
       <c r="J81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -5902,8 +7324,23 @@
       <c r="P81">
         <v>-0.97</v>
       </c>
+      <c r="Q81">
+        <v>1.6</v>
+      </c>
+      <c r="R81">
+        <v>23.78</v>
+      </c>
+      <c r="S81">
+        <v>5.55</v>
+      </c>
       <c r="V81" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
       </c>
       <c r="Y81">
         <v>0</v>
@@ -5911,22 +7348,25 @@
       <c r="Z81">
         <v>1.767259836196899</v>
       </c>
-      <c r="AA81" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27">
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C82">
         <v>688499</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82">
         <v>-0.71</v>
@@ -5944,7 +7384,7 @@
         <v>75656.32000000001</v>
       </c>
       <c r="J82" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K82">
         <v>27</v>
@@ -5964,8 +7404,23 @@
       <c r="P82">
         <v>-0.23</v>
       </c>
+      <c r="Q82">
+        <v>-0.42</v>
+      </c>
+      <c r="R82">
+        <v>55.3</v>
+      </c>
+      <c r="S82">
+        <v>4.58</v>
+      </c>
       <c r="V82" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
       </c>
       <c r="Y82">
         <v>0</v>
@@ -5973,22 +7428,25 @@
       <c r="Z82">
         <v>5.589896678924561</v>
       </c>
-      <c r="AA82" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27">
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C83">
         <v>688500</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83">
         <v>9.449999999999999</v>
@@ -6006,7 +7464,7 @@
         <v>29273.38</v>
       </c>
       <c r="J83" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -6026,8 +7484,23 @@
       <c r="P83">
         <v>0.29</v>
       </c>
+      <c r="Q83">
+        <v>-1.79</v>
+      </c>
+      <c r="R83">
+        <v>69.02</v>
+      </c>
+      <c r="S83">
+        <v>1.68</v>
+      </c>
       <c r="V83" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
       </c>
       <c r="Y83">
         <v>0</v>
@@ -6035,22 +7508,25 @@
       <c r="Z83">
         <v>0.3581109941005707</v>
       </c>
-      <c r="AA83" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27">
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C84">
         <v>688553</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E84">
         <v>-1.01</v>
@@ -6068,7 +7544,7 @@
         <v>23190.38</v>
       </c>
       <c r="J84" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K84">
         <v>5</v>
@@ -6088,8 +7564,23 @@
       <c r="P84">
         <v>-0.38</v>
       </c>
+      <c r="Q84">
+        <v>0.88</v>
+      </c>
+      <c r="R84">
+        <v>23.09</v>
+      </c>
+      <c r="S84">
+        <v>7.1</v>
+      </c>
       <c r="V84" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>1</v>
       </c>
       <c r="Y84">
         <v>0</v>
@@ -6097,22 +7588,25 @@
       <c r="Z84">
         <v>2.93088173866272</v>
       </c>
-      <c r="AA84" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27">
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C85">
         <v>688668</v>
       </c>
       <c r="D85" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E85">
         <v>-1.08</v>
@@ -6130,7 +7624,7 @@
         <v>51067.8</v>
       </c>
       <c r="J85" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K85">
         <v>5</v>
@@ -6150,8 +7644,23 @@
       <c r="P85">
         <v>-0.33</v>
       </c>
+      <c r="Q85">
+        <v>1.07</v>
+      </c>
+      <c r="R85">
+        <v>81.89</v>
+      </c>
+      <c r="S85">
+        <v>5.32</v>
+      </c>
       <c r="V85" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
       </c>
       <c r="Y85">
         <v>0</v>
@@ -6159,22 +7668,25 @@
       <c r="Z85">
         <v>2.567237138748169</v>
       </c>
-      <c r="AA85" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27">
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C86">
         <v>688799</v>
       </c>
       <c r="D86" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E86">
         <v>-3.3</v>
@@ -6192,7 +7704,7 @@
         <v>33174.95</v>
       </c>
       <c r="J86" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K86">
         <v>11</v>
@@ -6212,8 +7724,23 @@
       <c r="P86">
         <v>-0.51</v>
       </c>
+      <c r="Q86">
+        <v>-2.39</v>
+      </c>
+      <c r="R86">
+        <v>56.97</v>
+      </c>
+      <c r="S86">
+        <v>1.35</v>
+      </c>
       <c r="V86" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
       </c>
       <c r="Y86">
         <v>0</v>
@@ -6221,8 +7748,11 @@
       <c r="Z86">
         <v>3.261989831924438</v>
       </c>
-      <c r="AA86" t="s">
-        <v>163</v>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
